--- a/data/trans_camb/P11_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.509610579590021</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.051050233803473</v>
+        <v>5.051050233803478</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.873839469336471</v>
@@ -664,7 +664,7 @@
         <v>-2.005063836808582</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.297541877613274</v>
+        <v>6.297541877613272</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.480614531982713</v>
+        <v>-7.958466951826999</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.09315555873176</v>
+        <v>-5.885975189472956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.833209105916408</v>
+        <v>1.466144152919574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.46823713499229</v>
+        <v>-12.38878443493782</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.83993615377776</v>
+        <v>-11.18261760237626</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.143764563326817</v>
+        <v>-1.134111243186773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.528648394552261</v>
+        <v>-7.652731143431664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.045041546986091</v>
+        <v>-5.82880213646039</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.409146251447902</v>
+        <v>2.345326401495643</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.14885001282596</v>
+        <v>1.762744030679917</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.020456722916317</v>
+        <v>4.443565889705526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.44406526147217</v>
+        <v>10.93479478605935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6971513635511721</v>
+        <v>0.8891007140691241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.966332105672157</v>
+        <v>1.75000630226452</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.8418333456549</v>
+        <v>10.88980804267881</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1497014303395621</v>
+        <v>0.1969726903107709</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.048331191727111</v>
+        <v>1.777873610708699</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.812059853584993</v>
+        <v>9.838972448418605</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2027177995324977</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2270568091530947</v>
+        <v>0.227056809153095</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.216636544558735</v>
@@ -769,7 +769,7 @@
         <v>-0.1121290917355157</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.352177141665023</v>
+        <v>0.3521771416650228</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4366874963470103</v>
+        <v>-0.4426311737247812</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3403494555788613</v>
+        <v>-0.3399837911772189</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.09325596508009104</v>
+        <v>0.07151303588197297</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4843930459005842</v>
+        <v>-0.4845424989083489</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4144089475000224</v>
+        <v>-0.4463088792647925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04506907944281448</v>
+        <v>-0.03203203413813307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3915495288523266</v>
+        <v>-0.3833184283470027</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3105082064559957</v>
+        <v>-0.2963132832663236</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1133065456655387</v>
+        <v>0.1067084941818793</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1663908777427319</v>
+        <v>0.1476729447785477</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3147653959162686</v>
+        <v>0.3706760387250499</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9170724543932254</v>
+        <v>0.848191897522406</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04139722685240362</v>
+        <v>0.04996027317054254</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1148413810933162</v>
+        <v>0.08489580544591457</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5910789901148956</v>
+        <v>0.6066726841138915</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009313611423955863</v>
+        <v>0.0134011261929507</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1331875599456823</v>
+        <v>0.1136873778311069</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6138838301499762</v>
+        <v>0.6101035449696182</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.3741512051037163</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10.40308902363702</v>
+        <v>10.40308902363703</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5192323278117417</v>
@@ -878,7 +878,7 @@
         <v>0.6143094532151783</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>10.2639771436789</v>
+        <v>10.26397714367889</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6272642790490255</v>
+        <v>-1.01488853940161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.111509490381507</v>
+        <v>-5.062919307317402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.232889201848515</v>
+        <v>4.721425864293053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.318541568768716</v>
+        <v>-6.168562382717576</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.011982777666611</v>
+        <v>-5.197005858523019</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.560350059675688</v>
+        <v>5.382394471699596</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.56008513800035</v>
+        <v>-1.82036066011733</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.175523593622434</v>
+        <v>-3.142338472275406</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.352435075419696</v>
+        <v>6.271930909294279</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.10779118924419</v>
+        <v>10.13235209788673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.921345243701111</v>
+        <v>5.320935084603201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.50611873733941</v>
+        <v>15.49738563526151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.807132795111799</v>
+        <v>6.2028169018866</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.637293858685442</v>
+        <v>7.087546744980028</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.24232831761891</v>
+        <v>16.00455098714028</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.430710559128785</v>
+        <v>5.845712187600978</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.446877293722156</v>
+        <v>4.566114433715775</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.94983041084733</v>
+        <v>13.74360446344674</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.03164076243199607</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.8797557347558453</v>
+        <v>0.8797557347558456</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02834500997790736</v>
@@ -983,7 +983,7 @@
         <v>0.04070079343750434</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6800351376422851</v>
+        <v>0.6800351376422847</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06699114342332702</v>
+        <v>-0.06790552099615539</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3521807457150387</v>
+        <v>-0.344118016047852</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3358778376224358</v>
+        <v>0.2895114341994564</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2542513265104545</v>
+        <v>-0.2896826448932466</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2418148462107747</v>
+        <v>-0.2471716752866514</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2164366732300774</v>
+        <v>0.2561628321320391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09480603134090218</v>
+        <v>-0.108468142611873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1930603802776729</v>
+        <v>-0.1824453707742952</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3542873719303455</v>
+        <v>0.3576820825317596</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.107556169278741</v>
+        <v>1.052900277780537</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5307881830928645</v>
+        <v>0.5657549545255031</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.688482330173116</v>
+        <v>1.651405719758824</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4461818068616634</v>
+        <v>0.3878542963062949</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4195987464106604</v>
+        <v>0.4529309836105146</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.075901668455774</v>
+        <v>1.081267062168915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4921749015608079</v>
+        <v>0.4438273674381099</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3239930907231634</v>
+        <v>0.3358214056046095</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.069428971039917</v>
+        <v>1.0641265106838</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.040917060099905</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.94355523534336</v>
+        <v>14.94355523534335</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.761923566019888</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009082117153824017</v>
+        <v>0.5643078326032611</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.016054181460901</v>
+        <v>-2.156089955740739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.52565915567602</v>
+        <v>6.588289212274634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.287051577324724</v>
+        <v>-6.521557093287453</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.65967555085198</v>
+        <v>-11.46495537192828</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.375326297368267</v>
+        <v>5.162969945081916</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5309978292510458</v>
+        <v>0.605098124783747</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.005037092137818</v>
+        <v>-3.134466578085512</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.659639917275875</v>
+        <v>8.467431353321226</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.86532124439058</v>
+        <v>10.2066412878477</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.688599932231246</v>
+        <v>7.835890191662854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.86539043666572</v>
+        <v>17.20877470511329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.5160886792812</v>
+        <v>10.88875363883885</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.6529739231725</v>
+        <v>9.381777223521167</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>24.05301564865203</v>
+        <v>23.57883565910473</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.132357303336814</v>
+        <v>9.231672785175277</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.772320246539856</v>
+        <v>5.789984344907826</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.76183320803849</v>
+        <v>17.90465064225983</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.03490315834886881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5010747682665483</v>
+        <v>0.501074768266548</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2267146337080609</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.005439805347370236</v>
+        <v>0.02013766758871386</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1508520074011978</v>
+        <v>-0.1048205458989474</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.315947381847683</v>
+        <v>0.3158302805044605</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2061178745780802</v>
+        <v>-0.1808439749155931</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3188693646725397</v>
+        <v>-0.3351730112002428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1493819010175118</v>
+        <v>0.1469385411558768</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02398000558996098</v>
+        <v>0.0264343242333453</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1283870634763215</v>
+        <v>-0.1365429391574385</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3761491842242691</v>
+        <v>0.3784287104494651</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6232833897835121</v>
+        <v>0.6365122572377497</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4272543666065395</v>
+        <v>0.4872520606241684</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.071106159635943</v>
+        <v>1.068634371359865</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4308600611774585</v>
+        <v>0.4725963241206558</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3821528811837977</v>
+        <v>0.3957165143505725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9741399898724886</v>
+        <v>0.9841394075986921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4882584960468395</v>
+        <v>0.4927704075856568</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3111795167720763</v>
+        <v>0.3118756377685149</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9559958414087363</v>
+        <v>0.9400874619228927</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.8341042170762952</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.730149200402589</v>
+        <v>7.730149200402595</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.496647650114338</v>
@@ -1297,7 +1297,7 @@
         <v>-1.779561365390614</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.336877903242618</v>
+        <v>8.336877903242607</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.8479706198805309</v>
@@ -1306,7 +1306,7 @@
         <v>-1.042742446699638</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.229239298746489</v>
+        <v>8.229239298746494</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.091435767619919</v>
+        <v>-3.881730847939445</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.237533072357596</v>
+        <v>-4.099294267744004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.157747937024242</v>
+        <v>4.288209131744717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.729698934171093</v>
+        <v>-6.229229003492526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.675192430062585</v>
+        <v>-6.248396922121343</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.060256023015753</v>
+        <v>3.810034877922053</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.497316621674409</v>
+        <v>-3.594587819102689</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.663271302557236</v>
+        <v>-3.701328088351312</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.595074913708407</v>
+        <v>5.196461584355396</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.9944780898506</v>
+        <v>2.84216067558213</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.481090997097445</v>
+        <v>2.69714591718156</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.3576221560064</v>
+        <v>11.33118828309266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.826013432752059</v>
+        <v>2.909492300662904</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.7780964641497</v>
+        <v>2.519078208198808</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.5343525068635</v>
+        <v>12.5670643047988</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.986358072818211</v>
+        <v>2.314402790161711</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.661653686880361</v>
+        <v>1.89239849549133</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.09076637415647</v>
+        <v>10.82621666822258</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.03650389029745461</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3383036707134184</v>
+        <v>0.3383036707134186</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05664121516176081</v>
@@ -1402,7 +1402,7 @@
         <v>-0.06734819527024022</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3155124020398651</v>
+        <v>0.3155124020398646</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.03510251661539199</v>
@@ -1411,7 +1411,7 @@
         <v>-0.04316527389357599</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3406568605607861</v>
+        <v>0.3406568605607863</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1707177949113828</v>
+        <v>-0.1573560901843798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1737971271049799</v>
+        <v>-0.1652369969945387</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1743365827152202</v>
+        <v>0.1782246784357329</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2030224583934157</v>
+        <v>-0.2155799189607353</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2230431059261286</v>
+        <v>-0.2193063576794125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1344448438965901</v>
+        <v>0.1281308150245688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1362787741350103</v>
+        <v>-0.1431401788111196</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1436607206060737</v>
+        <v>-0.1450719621380777</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2161087905580252</v>
+        <v>0.1986038834912404</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.143029819273725</v>
+        <v>0.1306843979359823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1174231463197063</v>
+        <v>0.1274967113740816</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5388833355800662</v>
+        <v>0.5372382646166652</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1169487430630481</v>
+        <v>0.1201211169431162</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1187630042519495</v>
+        <v>0.1061453252582482</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5307867022297994</v>
+        <v>0.5349863284392474</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08692132380826101</v>
+        <v>0.09676602382655342</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0748332548765541</v>
+        <v>0.08482603620405338</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4892471076242251</v>
+        <v>0.4742097914302502</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>7.49046358508238</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>17.4470583335209</v>
+        <v>17.44705833352091</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.379634577725422</v>
@@ -1520,7 +1520,7 @@
         <v>4.324189702194109</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>14.07608350425835</v>
+        <v>14.07608350425833</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.040678738420029</v>
+        <v>-8.129291786792425</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.228211879433999</v>
+        <v>-4.250974193673468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.098460509608699</v>
+        <v>3.310781453499389</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.750428009572977</v>
+        <v>5.454634572668594</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.371235426880858</v>
+        <v>2.335117031257502</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.78794827243685</v>
+        <v>12.61023347842609</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.79893924198534</v>
+        <v>0.9624477300312151</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6592146294728434</v>
+        <v>0.405191162684507</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.21851017490137</v>
+        <v>10.36158156128624</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.284180824938808</v>
+        <v>2.777325401328381</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.852069542045087</v>
+        <v>6.767041819092894</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.40213511327658</v>
+        <v>15.76641924792537</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.90715047933502</v>
+        <v>16.06940707115828</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.91318420204499</v>
+        <v>12.90568841007863</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>22.19700736427261</v>
+        <v>22.16734115258209</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.393536826371031</v>
+        <v>8.876707110732141</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.67147697937372</v>
+        <v>8.113231568515335</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.80963755486074</v>
+        <v>17.8086834792251</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2630067872830586</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6126049085904449</v>
+        <v>0.612604908590445</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2064039284902264</v>
@@ -1625,7 +1625,7 @@
         <v>0.1659089905038158</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5400662240266545</v>
+        <v>0.5400662240266538</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3072837923968352</v>
+        <v>-0.3130007296053191</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1637554266029694</v>
+        <v>-0.16286414123842</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1261111362167907</v>
+        <v>0.1313210901359584</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1782917121534535</v>
+        <v>0.1770603572885492</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07537502477560525</v>
+        <v>0.0758252628069796</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4064297800873792</v>
+        <v>0.3922204206821434</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06415954640017846</v>
+        <v>0.03209741031888975</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02333288528947061</v>
+        <v>0.01412056627613462</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3503445074519679</v>
+        <v>0.3660369344226847</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1691401541211588</v>
+        <v>0.1479757413145709</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3619659554752801</v>
+        <v>0.3480026106561495</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8234522555862575</v>
+        <v>0.8678683766133281</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6316936009630767</v>
+        <v>0.6325549832591775</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4965630247614167</v>
+        <v>0.5055885761961564</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8965990489427345</v>
+        <v>0.8778578171895695</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3926369430368703</v>
+        <v>0.3697484758842154</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3559167827505448</v>
+        <v>0.3350745272860216</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7627575149238334</v>
+        <v>0.7599600084038034</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.251699990315692</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.830330830945139</v>
+        <v>3.830330830945145</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.704048504163214</v>
@@ -1734,7 +1734,7 @@
         <v>-2.57401868795753</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.089045686355563</v>
+        <v>3.089045686355546</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.731255708219204</v>
+        <v>-3.989948203363969</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.915191718415054</v>
+        <v>-5.722472201560922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.852495895870069</v>
+        <v>-1.637500628473701</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.709159840443738</v>
+        <v>-1.820040962923137</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.765220680781074</v>
+        <v>-6.399317547643249</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.1960351176642656</v>
+        <v>0.02474391078233942</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.515280086007755</v>
+        <v>-1.906761944784772</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.761610378833106</v>
+        <v>-5.934208233546332</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.8876639287429886</v>
+        <v>-0.454875638564048</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.583097609122603</v>
+        <v>5.218723833473828</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.991646732684535</v>
+        <v>2.338867216185904</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.9711530343948</v>
+        <v>10.87431102062098</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.194753846997465</v>
+        <v>5.734125775693081</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.466210420209343</v>
+        <v>1.426427648708085</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.06922434902077</v>
+        <v>7.746027218704067</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.004341785370556</v>
+        <v>4.924764507909601</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.6704089633973603</v>
+        <v>0.4076577225637368</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.775753997568856</v>
+        <v>6.668567630633353</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.06268946049173915</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1066400383397258</v>
+        <v>0.106640038339726</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.05622046342573372</v>
@@ -1839,7 +1839,7 @@
         <v>-0.08492277253254221</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1019146929244565</v>
+        <v>0.101914692924456</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4424503769776839</v>
+        <v>-0.4707926614764998</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6507265345882627</v>
+        <v>-0.6488870793542219</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2236060774852663</v>
+        <v>-0.2117181089533956</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.04536152709596009</v>
+        <v>-0.04736583668160903</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.178583928677864</v>
+        <v>-0.1709914255793013</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.004976163715261738</v>
+        <v>0.002297243369294612</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04808560776913066</v>
+        <v>-0.05943625762714367</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1825243990832056</v>
+        <v>-0.1859422222059078</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.02638096228141001</v>
+        <v>-0.01566140146565342</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9043333117705878</v>
+        <v>1.068262527212273</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5084103000360997</v>
+        <v>0.493976187979424</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.047690237004406</v>
+        <v>2.279135391284365</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1826869243674387</v>
+        <v>0.1681815296882485</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04228784566625648</v>
+        <v>0.0424866904490161</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2357942012004663</v>
+        <v>0.2287337505562557</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1762392464421691</v>
+        <v>0.169875603218185</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.02091647222393613</v>
+        <v>0.01434126775850275</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2403555165780725</v>
+        <v>0.2336059195773355</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-0.4462106099765384</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.132193956703876</v>
+        <v>8.132193956703881</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.416806639169593</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.177848478160914</v>
+        <v>-1.368738486981907</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.498319141324717</v>
+        <v>-1.517082544833382</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.543821117077172</v>
+        <v>6.334029021068098</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.5034809830372595</v>
+        <v>-0.2853644959799226</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.623275408511762</v>
+        <v>-2.927214754441488</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.106607789906962</v>
+        <v>6.249148896404134</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.1672149744978683</v>
+        <v>-0.06894022864834858</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.467934885211077</v>
+        <v>-1.466060400175857</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.838977304344278</v>
+        <v>6.968627468605866</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.69646890156835</v>
+        <v>2.629607165868304</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.443193493879483</v>
+        <v>2.299239709060862</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.70898315784316</v>
+        <v>10.54448489739793</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.18626098117219</v>
+        <v>4.022732754122637</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.616809385939225</v>
+        <v>1.628919023279673</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.16800181243515</v>
+        <v>10.14163658955407</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.817261886124883</v>
+        <v>3.091524277392233</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.559780126488988</v>
+        <v>1.465801678886916</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.774609346870056</v>
+        <v>9.796351081071464</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.01529327096772507</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2787200549724891</v>
+        <v>0.2787200549724893</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.05960056627138981</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06116593969838722</v>
+        <v>-0.07040966167293365</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07801680064569275</v>
+        <v>-0.07814886448374492</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3391441670188035</v>
+        <v>0.3309201710011304</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01665197487950697</v>
+        <v>-0.01050875545265712</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.08579599821651424</v>
+        <v>-0.09515752716518078</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.203947309756385</v>
+        <v>0.2080844051868252</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.00673921864173369</v>
+        <v>-0.003056588829015199</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.05951317555925924</v>
+        <v>-0.05896252896890621</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2770127452347434</v>
+        <v>0.2815204281511942</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1563315885855675</v>
+        <v>0.1530984010377036</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1406251097904291</v>
+        <v>0.133298006624512</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6166452391605819</v>
+        <v>0.6056323718365596</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1477991517402919</v>
+        <v>0.1439510207889715</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05822915591879507</v>
+        <v>0.05840435373968892</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3615750760467768</v>
+        <v>0.3664111355717694</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1222757947583593</v>
+        <v>0.1324973586191622</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06767164955258999</v>
+        <v>0.06391872172023494</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4262261298060304</v>
+        <v>0.4270784246345345</v>
       </c>
     </row>
     <row r="46">
